--- a/invoice-licensed.xlsx
+++ b/invoice-licensed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swinc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C5409-890D-43A4-B1C4-4FCB1792A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF673A88-2A02-4EA7-B8ED-3501607BC601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="0" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
@@ -62,14 +52,9 @@
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
-      <rc t="2" v="0"/>
+      <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -366,15 +351,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,6 +387,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,70 +421,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,8 +711,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,53 +724,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A1" s="22"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="8" t="str" cm="1">
+      <c r="A7" s="30" t="str" cm="1">
         <f t="array" ref="A7">IF(NOT(IsGoogleSheets),"","Google Sheets is not allowed in the trial version!")</f>
         <v/>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
@@ -857,7 +776,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -868,7 +787,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -880,7 +799,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -896,229 +815,138 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26">
-        <v>100</v>
-      </c>
-      <c r="E15" s="26" cm="1">
-        <f t="array" ref="E15">IF(NOT(IsGoogleSheets),C15*D15,"GOOGLE SHEETS DETECTED")</f>
-        <v>100</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="20">
-        <v>2</v>
-      </c>
-      <c r="D16" s="27">
-        <v>100</v>
-      </c>
-      <c r="E16" s="27" cm="1">
-        <f t="array" ref="E16">IF(NOT(IsGoogleSheets),C16*D16,"GOOGLE SHEETS DETECTED")</f>
-        <v>200</v>
-      </c>
+      <c r="A16" s="16"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="4">
-        <v>3</v>
-      </c>
-      <c r="D17" s="26">
-        <v>100</v>
-      </c>
-      <c r="E17" s="26" cm="1">
-        <f t="array" ref="E17">IF(NOT(IsGoogleSheets),C17*D17,"GOOGLE SHEETS DETECTED")</f>
-        <v>300</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="20">
-        <v>4</v>
-      </c>
-      <c r="D18" s="27">
-        <v>100</v>
-      </c>
-      <c r="E18" s="27" cm="1">
-        <f t="array" ref="E18">IF(NOT(IsGoogleSheets),C18*D18,"GOOGLE SHEETS DETECTED")</f>
-        <v>400</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19" s="26">
-        <v>100</v>
-      </c>
-      <c r="E19" s="26" cm="1">
-        <f t="array" ref="E19">IF(NOT(IsGoogleSheets),C19*D19,"GOOGLE SHEETS DETECTED")</f>
-        <v>500</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="14">
-        <v>6</v>
-      </c>
-      <c r="D20" s="28">
-        <v>100</v>
-      </c>
-      <c r="E20" s="28" cm="1">
-        <f t="array" ref="E20">IF(NOT(IsGoogleSheets),C20*D20,"GOOGLE SHEETS DETECTED")</f>
-        <v>600</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="4">
-        <v>7</v>
-      </c>
-      <c r="D21" s="26">
-        <v>100</v>
-      </c>
-      <c r="E21" s="26" cm="1">
-        <f t="array" ref="E21">IF(NOT(IsGoogleSheets),C21*D21,"GOOGLE SHEETS DETECTED")</f>
-        <v>700</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="20">
-        <v>8</v>
-      </c>
-      <c r="D22" s="27">
-        <v>100</v>
-      </c>
-      <c r="E22" s="27" cm="1">
-        <f t="array" ref="E22">IF(NOT(IsGoogleSheets),C22*D22,"GOOGLE SHEETS DETECTED")</f>
-        <v>800</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="4">
-        <v>9</v>
-      </c>
-      <c r="D23" s="26">
-        <v>100</v>
-      </c>
-      <c r="E23" s="26" cm="1">
-        <f t="array" ref="E23">IF(NOT(IsGoogleSheets),C23*D23,"GOOGLE SHEETS DETECTED")</f>
-        <v>900</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="20">
-        <v>10</v>
-      </c>
-      <c r="D24" s="27">
-        <v>100</v>
-      </c>
-      <c r="E24" s="27" cm="1">
-        <f t="array" ref="E24">IF(NOT(IsGoogleSheets),C24*D24,"GOOGLE SHEETS DETECTED")</f>
-        <v>1000</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D25" s="26">
-        <v>1</v>
-      </c>
-      <c r="E25" s="26" cm="1">
-        <f t="array" ref="E25">IF(NOT(IsGoogleSheets),C25*D25,"GOOGLE SHEETS DETECTED")</f>
-        <v>1000</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="20">
-        <v>2</v>
-      </c>
-      <c r="D26" s="27">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="27" cm="1">
-        <f t="array" ref="E26">IF(NOT(IsGoogleSheets),C26*D26,"GOOGLE SHEETS DETECTED")</f>
-        <v>2000</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="26">
-        <v>10000</v>
-      </c>
-      <c r="E27" s="26" cm="1">
-        <f t="array" ref="E27">IF(NOT(IsGoogleSheets),C27*D27,"GOOGLE SHEETS DETECTED")</f>
-        <v>10000</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="26" cm="1">
+      <c r="E29" s="23" cm="1">
         <f t="array" ref="E29">IF(NOT(IsGoogleSheets),SUM(E15:E27),"GOOGLE SHEETS DETECTED")</f>
-        <v>18500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="26" cm="1">
+      <c r="E30" s="23" cm="1">
         <f t="array" ref="E30">IF(NOT(IsGoogleSheets),E29*0.1,"GOOGLE SHEETS DETECTED")</f>
-        <v>1850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="29" cm="1">
+      <c r="E31" s="26" cm="1">
         <f t="array" ref="E31">IF(NOT(IsGoogleSheets),E29+E30,"GOOGLE SHEETS DETECTED")</f>
-        <v>20350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1129,30 +957,30 @@
       <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>27</v>
       </c>
     </row>
